--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="38">
   <si>
     <t>Test Method</t>
   </si>
@@ -23,19 +23,341 @@
     <t>Assertion Result</t>
   </si>
   <si>
-    <t>Actual Value</t>
-  </si>
-  <si>
-    <t>Expected Value</t>
+    <t>Actual Product</t>
+  </si>
+  <si>
+    <t>Expected Product</t>
   </si>
   <si>
     <t>launch</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bc2cd0f62d4568fc12f0d47082bad46e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59747}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59747/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bc2cd0f62d4568fc12f0d47082bad46e</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [208ae4991f6a58d7e7da65d9f13ae86c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59784}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59784/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 208ae4991f6a58d7e7da65d9f13ae86c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [25428be3e7e159e1b3ceba4ec26c5754, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59810}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59810/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 25428be3e7e159e1b3ceba4ec26c5754</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6848f966248838e295c9d41a38659a97, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59835}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59835/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6848f966248838e295c9d41a38659a97</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1d66f7e305bd1259b54859afb00e855d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59861}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59861/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1d66f7e305bd1259b54859afb00e855d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9b6d3b10f06869c206b1f9619ea54a39, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59886}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59886/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9b6d3b10f06869c206b1f9619ea54a39</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e8aacf13539d118f1d79d81a86568263, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59912}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59912/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e8aacf13539d118f1d79d81a86568263</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c9f4b1a2427cc6ab4f7145b25c072e27, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60044}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60044/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c9f4b1a2427cc6ab4f7145b25c072e27</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [29f0850e1cf7ccb822164f227bd93583, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60070}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60070/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 29f0850e1cf7ccb822164f227bd93583</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f1da8a4ce139e1daac6f17280ad49ee1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60095}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60095/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f1da8a4ce139e1daac6f17280ad49ee1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ba046ebe45e8e1ff6c9268684ca0959d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60121}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60121/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ba046ebe45e8e1ff6c9268684ca0959d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [39407c062a42059b9471d9828e3ae8be, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60146}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60146/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 39407c062a42059b9471d9828e3ae8be</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7c8d13af8b3a4cd7ad4fa0a2f3700fc7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60171}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60171/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7c8d13af8b3a4cd7ad4fa0a2f3700fc7</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a0debbcb29bfda535bf0a542a1d6f91d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60196}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60196/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a0debbcb29bfda535bf0a542a1d6f91d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [aed7d0efd1f6d0f8d77467f2eb98cde4, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60221}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60221/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: aed7d0efd1f6d0f8d77467f2eb98cde4</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b3a1a6c790fcfbdc145c907e49995443, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60246}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60246/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b3a1a6c790fcfbdc145c907e49995443</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bba9fcb01e0bc04b40aeaeaa936bd979, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60271}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60271/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bba9fcb01e0bc04b40aeaeaa936bd979</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0a6bf61758e51fe06529e0e9bd0fb68e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60293}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60293/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a6bf61758e51fe06529e0e9bd0fb68e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4dca1a80b8d8cd3d41cf8e12dc160a13, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60318}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60318/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4dca1a80b8d8cd3d41cf8e12dc160a13</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d8bcdb2149e2a43f812d9680feeac287, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60344}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60344/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d8bcdb2149e2a43f812d9680feeac287</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a0c91f42be94f8d94bd5c8d2a8f9083d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60369}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60369/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a0c91f42be94f8d94bd5c8d2a8f9083d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [69d99400e8a111e6961b06b8778aaacb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60394}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60394/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 69d99400e8a111e6961b06b8778aaacb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c862945b0d5af59323126b5125f19531, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60419}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60419/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c862945b0d5af59323126b5125f19531</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [56a8e27d5520451510425ca8c89e10e6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60445}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60445/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 56a8e27d5520451510425ca8c89e10e6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2d4ab1945a69e9798a4d535cbb7bbada, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60470}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60470/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2d4ab1945a69e9798a4d535cbb7bbada</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [717da4710571ed66cea87a48c783a4fc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60505}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60505/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 717da4710571ed66cea87a48c783a4fc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [50e23c538089fa0fbf6726534eee5e60, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60587}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60587/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 50e23c538089fa0fbf6726534eee5e60</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ee1f3277938b51baaa1c1ecf03e44782, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60613}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60613/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ee1f3277938b51baaa1c1ecf03e44782</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.119)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d469682800372e48e4e7708ec7e08376, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60639}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60639/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d469682800372e48e4e7708ec7e08376</t>
   </si>
 </sst>
 </file>
@@ -80,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -114,10 +436,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -128,13 +450,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -145,13 +467,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -162,13 +484,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -179,13 +501,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -196,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -213,13 +535,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -227,16 +549,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -244,16 +566,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -261,16 +583,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -278,16 +600,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -298,13 +620,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -315,13 +637,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -332,13 +654,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -349,13 +671,353 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="11">
   <si>
     <t>Test Method</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>launch</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Fail</t>
@@ -41,323 +47,12 @@
 Build info: version: '4.14.1', revision: '03f8ede370'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [bc2cd0f62d4568fc12f0d47082bad46e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59747}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59747/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: bc2cd0f62d4568fc12f0d47082bad46e</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [208ae4991f6a58d7e7da65d9f13ae86c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59784}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59784/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 208ae4991f6a58d7e7da65d9f13ae86c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [25428be3e7e159e1b3ceba4ec26c5754, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59810}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59810/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 25428be3e7e159e1b3ceba4ec26c5754</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6848f966248838e295c9d41a38659a97, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59835}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59835/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6848f966248838e295c9d41a38659a97</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [1d66f7e305bd1259b54859afb00e855d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59861}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59861/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 1d66f7e305bd1259b54859afb00e855d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [9b6d3b10f06869c206b1f9619ea54a39, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59886}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59886/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 9b6d3b10f06869c206b1f9619ea54a39</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e8aacf13539d118f1d79d81a86568263, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59912}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:59912/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e8aacf13539d118f1d79d81a86568263</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c9f4b1a2427cc6ab4f7145b25c072e27, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60044}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60044/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c9f4b1a2427cc6ab4f7145b25c072e27</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [29f0850e1cf7ccb822164f227bd93583, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60070}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60070/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 29f0850e1cf7ccb822164f227bd93583</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [f1da8a4ce139e1daac6f17280ad49ee1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60095}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60095/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: f1da8a4ce139e1daac6f17280ad49ee1</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [ba046ebe45e8e1ff6c9268684ca0959d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60121}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60121/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ba046ebe45e8e1ff6c9268684ca0959d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [39407c062a42059b9471d9828e3ae8be, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60146}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60146/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 39407c062a42059b9471d9828e3ae8be</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [7c8d13af8b3a4cd7ad4fa0a2f3700fc7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60171}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60171/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 7c8d13af8b3a4cd7ad4fa0a2f3700fc7</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a0debbcb29bfda535bf0a542a1d6f91d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60196}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60196/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a0debbcb29bfda535bf0a542a1d6f91d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [aed7d0efd1f6d0f8d77467f2eb98cde4, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60221}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60221/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: aed7d0efd1f6d0f8d77467f2eb98cde4</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b3a1a6c790fcfbdc145c907e49995443, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60246}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60246/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b3a1a6c790fcfbdc145c907e49995443</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [bba9fcb01e0bc04b40aeaeaa936bd979, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60271}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60271/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: bba9fcb01e0bc04b40aeaeaa936bd979</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0a6bf61758e51fe06529e0e9bd0fb68e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60293}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60293/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0a6bf61758e51fe06529e0e9bd0fb68e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [4dca1a80b8d8cd3d41cf8e12dc160a13, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60318}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60318/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 4dca1a80b8d8cd3d41cf8e12dc160a13</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d8bcdb2149e2a43f812d9680feeac287, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60344}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60344/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d8bcdb2149e2a43f812d9680feeac287</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a0c91f42be94f8d94bd5c8d2a8f9083d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60369}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60369/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a0c91f42be94f8d94bd5c8d2a8f9083d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [69d99400e8a111e6961b06b8778aaacb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60394}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60394/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 69d99400e8a111e6961b06b8778aaacb</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c862945b0d5af59323126b5125f19531, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60419}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60419/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c862945b0d5af59323126b5125f19531</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [56a8e27d5520451510425ca8c89e10e6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60445}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60445/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 56a8e27d5520451510425ca8c89e10e6</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [2d4ab1945a69e9798a4d535cbb7bbada, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60470}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60470/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 2d4ab1945a69e9798a4d535cbb7bbada</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [717da4710571ed66cea87a48c783a4fc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60505}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60505/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 717da4710571ed66cea87a48c783a4fc</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [50e23c538089fa0fbf6726534eee5e60, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60587}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60587/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 50e23c538089fa0fbf6726534eee5e60</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [ee1f3277938b51baaa1c1ecf03e44782, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60613}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60613/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ee1f3277938b51baaa1c1ecf03e44782</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d469682800372e48e4e7708ec7e08376, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60639}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60639/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d469682800372e48e4e7708ec7e08376</t>
+Command: [2f4d493783614838330ea5374ca7fb91, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62328}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:62328/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2f4d493783614838330ea5374ca7fb91</t>
+  </si>
+  <si>
+    <t>Pack mismatch expected [true] but found [false]</t>
   </si>
 </sst>
 </file>
@@ -436,10 +131,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -450,13 +145,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -467,13 +162,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -484,13 +179,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -501,13 +196,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -518,13 +213,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -535,13 +230,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -549,16 +244,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -566,16 +261,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -583,16 +278,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -600,16 +295,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -617,16 +312,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -634,16 +329,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -651,16 +346,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -668,16 +363,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -685,16 +380,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -702,16 +397,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -719,16 +414,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -736,16 +431,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -756,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -773,13 +468,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -790,13 +485,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -807,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -824,13 +519,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -841,13 +536,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -858,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -875,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -892,13 +587,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -909,13 +604,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +621,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -940,16 +635,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -957,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -977,13 +672,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -994,13 +689,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1011,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="57">
   <si>
     <t>Test Method</t>
   </si>
@@ -32,27 +32,541 @@
     <t>launch</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fbd12bd9f61ebf59403b5cf3d51ba4eb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55759}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55759/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fbd12bd9f61ebf59403b5cf3d51ba4eb</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e9319a4290330b4482c6b55691c46273, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55791}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55791/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e9319a4290330b4482c6b55691c46273</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [86a4a5dd0e36be18c23cbed41f0ed6a0, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55819}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55819/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 86a4a5dd0e36be18c23cbed41f0ed6a0</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [89932c2d07c357418213140e86af6e51, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55846}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55846/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 89932c2d07c357418213140e86af6e51</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e56c042dd9a5b38bbc24743ee1a554ed, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55874}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55874/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e56c042dd9a5b38bbc24743ee1a554ed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ccb89d0f84f31dcccff08db5aceb5558, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55905}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55905/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ccb89d0f84f31dcccff08db5aceb5558</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [490833c65088c8b1a21b8b859c4e14ad, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55933}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55933/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 490833c65088c8b1a21b8b859c4e14ad</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f86dc18fc7913a9716202ad818197e01, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55959}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55959/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f86dc18fc7913a9716202ad818197e01</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [dab1155bfd21c052abd0577530900a5e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55986}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55986/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: dab1155bfd21c052abd0577530900a5e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6086192dda4ea70a3626b696da31b50d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56012}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56012/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6086192dda4ea70a3626b696da31b50d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [913435ebd6209844861e78df68421af9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56040}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56040/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 913435ebd6209844861e78df68421af9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3f8e868c68d6d5f79cd9a3fd2a0931f9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56068}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56068/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3f8e868c68d6d5f79cd9a3fd2a0931f9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [41be72566a61a7f84d71d3521d7b4ded, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56100}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56100/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 41be72566a61a7f84d71d3521d7b4ded</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5a4c6db387ef73c43aef25f4350fabfa, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56127}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56127/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5a4c6db387ef73c43aef25f4350fabfa</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [09850322927b1fd6cbbe431fc0bdf54e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56155}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56155/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 09850322927b1fd6cbbe431fc0bdf54e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [048095b65b370ac796407f020c13fae5, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56181}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56181/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 048095b65b370ac796407f020c13fae5</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0a1253e4a5dae6fbfbeec88ad4e8fc8c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56211}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56211/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a1253e4a5dae6fbfbeec88ad4e8fc8c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6de94d5304db673c20c01676102f3afb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56241}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56241/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6de94d5304db673c20c01676102f3afb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [57b1a7ea241c8d7add8a886b737b722b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56268}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56268/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 57b1a7ea241c8d7add8a886b737b722b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9821cf56a787637fde829547ab9f4dcf, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56295}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56295/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9821cf56a787637fde829547ab9f4dcf</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4a0152234e006de60ea9c1696d488831, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56321}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56321/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4a0152234e006de60ea9c1696d488831</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6aa0eb9a026edaba5f314e3dd651ec4d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56359}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56359/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6aa0eb9a026edaba5f314e3dd651ec4d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3fc402efaa99674c658d70dc95671e8c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56387}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56387/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3fc402efaa99674c658d70dc95671e8c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [96f21cc3ee9b76b8fd2ab1eacd5dba57, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56414}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56414/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 96f21cc3ee9b76b8fd2ab1eacd5dba57</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a216e55f462289eb0b02dec3c4e9a618, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56442}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56442/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a216e55f462289eb0b02dec3c4e9a618</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f954d36037da0264d14cb4ac4bb4b274, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56472}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56472/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f954d36037da0264d14cb4ac4bb4b274</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8238bbf261b279b98ea72984c34033fc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56498}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56498/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8238bbf261b279b98ea72984c34033fc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [03843c7a9ef2384b13b4fce296cf97fe, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56526}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56526/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 03843c7a9ef2384b13b4fce296cf97fe</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9fd82ffbf6d6847bb08c43dfc758e293, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56562}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56562/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9fd82ffbf6d6847bb08c43dfc758e293</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a0449f8ab4714906a123b856e12a5da1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56589}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56589/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a0449f8ab4714906a123b856e12a5da1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bf1e7ddcb5cd503aa0545c642f0cdbf8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56619}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56619/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bf1e7ddcb5cd503aa0545c642f0cdbf8</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d5f65f9fdcb2e3e2123aab896b737cc6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56646}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56646/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d5f65f9fdcb2e3e2123aab896b737cc6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6e94097bcc215e0c8d96be36a69c90af, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56671}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56671/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6e94097bcc215e0c8d96be36a69c90af</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ce061928ff8e6125219796d4bf14ec33, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56701}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56701/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ce061928ff8e6125219796d4bf14ec33</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6473591372a94b8b9c48b32d05d87169, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56727}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56727/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6473591372a94b8b9c48b32d05d87169</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c06027560a81fd853e666a3ff7ae5184, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56755}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56755/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c06027560a81fd853e666a3ff7ae5184</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e766974697a3a47ad3483dd2732ee892, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56784}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56784/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e766974697a3a47ad3483dd2732ee892</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ea604484463339e4e15488306ada7414, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56813}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56813/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ea604484463339e4e15488306ada7414</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [302351e6a7f9c37b83e6076c416916cb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56839}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56839/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 302351e6a7f9c37b83e6076c416916cb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a09769ddee75b01fc0e24521411b038c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56867}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56867/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a09769ddee75b01fc0e24521411b038c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b5b88392edc1186fe0473ba057ee91dc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56895}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56895/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b5b88392edc1186fe0473ba057ee91dc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a26cfa0b922de1a0844757f00a3f6176, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56923}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56923/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a26cfa0b922de1a0844757f00a3f6176</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [34cc1ab706778dc7e2e4860234f67c1c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56950}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56950/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 34cc1ab706778dc7e2e4860234f67c1c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d04aa77d1a0d008d7c1d4a8cf1136425, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56977}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56977/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d04aa77d1a0d008d7c1d4a8cf1136425</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3cfbfb3e26e39acad123a0a85174f426, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57003}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57003/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3cfbfb3e26e39acad123a0a85174f426</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.119)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [2f4d493783614838330ea5374ca7fb91, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.119, chrome: {chromedriverVersion: 124.0.6367.155 (df4f029328b..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62328}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:62328/devtoo..., se:cdpVersion: 124.0.6367.119, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 2f4d493783614838330ea5374ca7fb91</t>
-  </si>
-  <si>
-    <t>Pack mismatch expected [true] but found [false]</t>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [82037d8e20c9042537bff2584ccb0b29, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57202}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57202/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 82037d8e20c9042537bff2584ccb0b29</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c5ba5e09c92f1ae77295bb1df76627f4, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57229}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57229/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c5ba5e09c92f1ae77295bb1df76627f4</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [be8bd1038a9d68adedbda6075f077285, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57256}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57256/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: be8bd1038a9d68adedbda6075f077285</t>
   </si>
 </sst>
 </file>
@@ -97,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -131,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -145,13 +659,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -162,13 +676,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -179,13 +693,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -196,13 +710,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -213,13 +727,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -230,13 +744,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -247,13 +761,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -264,13 +778,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -281,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -298,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -312,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -329,16 +843,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -346,16 +860,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -363,16 +877,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -380,16 +894,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -397,16 +911,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -414,16 +928,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -431,16 +945,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -451,13 +965,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -468,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -485,13 +999,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -502,13 +1016,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -519,13 +1033,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -536,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -553,13 +1067,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -570,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -587,13 +1101,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -604,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -621,13 +1135,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -638,13 +1152,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -655,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -672,13 +1186,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -689,13 +1203,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -706,13 +1220,336 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="47">
   <si>
     <t>Test Method</t>
   </si>
@@ -41,9 +41,9 @@
 Build info: version: '4.14.1', revision: '03f8ede370'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [fbd12bd9f61ebf59403b5cf3d51ba4eb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55759}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55759/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: fbd12bd9f61ebf59403b5cf3d51ba4eb</t>
+Command: [23b7a95620640d2f67ce15c7862de407, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60631}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60631/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 23b7a95620640d2f67ce15c7862de407</t>
   </si>
   <si>
     <t>N/A</t>
@@ -55,482 +55,372 @@
 Build info: version: '4.14.1', revision: '03f8ede370'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e9319a4290330b4482c6b55691c46273, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55791}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55791/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e9319a4290330b4482c6b55691c46273</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [86a4a5dd0e36be18c23cbed41f0ed6a0, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55819}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55819/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 86a4a5dd0e36be18c23cbed41f0ed6a0</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [89932c2d07c357418213140e86af6e51, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55846}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55846/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 89932c2d07c357418213140e86af6e51</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e56c042dd9a5b38bbc24743ee1a554ed, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55874}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55874/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e56c042dd9a5b38bbc24743ee1a554ed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [ccb89d0f84f31dcccff08db5aceb5558, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55905}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55905/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ccb89d0f84f31dcccff08db5aceb5558</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [490833c65088c8b1a21b8b859c4e14ad, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55933}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55933/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 490833c65088c8b1a21b8b859c4e14ad</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [f86dc18fc7913a9716202ad818197e01, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55959}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55959/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: f86dc18fc7913a9716202ad818197e01</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [dab1155bfd21c052abd0577530900a5e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55986}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:55986/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: dab1155bfd21c052abd0577530900a5e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6086192dda4ea70a3626b696da31b50d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56012}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56012/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6086192dda4ea70a3626b696da31b50d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [913435ebd6209844861e78df68421af9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56040}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56040/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 913435ebd6209844861e78df68421af9</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3f8e868c68d6d5f79cd9a3fd2a0931f9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56068}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56068/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3f8e868c68d6d5f79cd9a3fd2a0931f9</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [41be72566a61a7f84d71d3521d7b4ded, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56100}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56100/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 41be72566a61a7f84d71d3521d7b4ded</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [5a4c6db387ef73c43aef25f4350fabfa, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56127}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56127/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5a4c6db387ef73c43aef25f4350fabfa</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [09850322927b1fd6cbbe431fc0bdf54e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56155}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56155/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 09850322927b1fd6cbbe431fc0bdf54e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [048095b65b370ac796407f020c13fae5, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56181}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56181/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 048095b65b370ac796407f020c13fae5</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0a1253e4a5dae6fbfbeec88ad4e8fc8c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56211}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56211/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0a1253e4a5dae6fbfbeec88ad4e8fc8c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6de94d5304db673c20c01676102f3afb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56241}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56241/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6de94d5304db673c20c01676102f3afb</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [57b1a7ea241c8d7add8a886b737b722b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56268}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56268/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 57b1a7ea241c8d7add8a886b737b722b</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [9821cf56a787637fde829547ab9f4dcf, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56295}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56295/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 9821cf56a787637fde829547ab9f4dcf</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [4a0152234e006de60ea9c1696d488831, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56321}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56321/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 4a0152234e006de60ea9c1696d488831</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6aa0eb9a026edaba5f314e3dd651ec4d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56359}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56359/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6aa0eb9a026edaba5f314e3dd651ec4d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3fc402efaa99674c658d70dc95671e8c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56387}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56387/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3fc402efaa99674c658d70dc95671e8c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [96f21cc3ee9b76b8fd2ab1eacd5dba57, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56414}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56414/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 96f21cc3ee9b76b8fd2ab1eacd5dba57</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a216e55f462289eb0b02dec3c4e9a618, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56442}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56442/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a216e55f462289eb0b02dec3c4e9a618</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [f954d36037da0264d14cb4ac4bb4b274, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56472}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56472/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: f954d36037da0264d14cb4ac4bb4b274</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8238bbf261b279b98ea72984c34033fc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56498}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56498/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 8238bbf261b279b98ea72984c34033fc</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [03843c7a9ef2384b13b4fce296cf97fe, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56526}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56526/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 03843c7a9ef2384b13b4fce296cf97fe</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [9fd82ffbf6d6847bb08c43dfc758e293, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56562}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56562/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 9fd82ffbf6d6847bb08c43dfc758e293</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a0449f8ab4714906a123b856e12a5da1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56589}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56589/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a0449f8ab4714906a123b856e12a5da1</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [bf1e7ddcb5cd503aa0545c642f0cdbf8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56619}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56619/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: bf1e7ddcb5cd503aa0545c642f0cdbf8</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d5f65f9fdcb2e3e2123aab896b737cc6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56646}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56646/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d5f65f9fdcb2e3e2123aab896b737cc6</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6e94097bcc215e0c8d96be36a69c90af, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56671}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56671/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6e94097bcc215e0c8d96be36a69c90af</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [ce061928ff8e6125219796d4bf14ec33, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56701}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56701/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ce061928ff8e6125219796d4bf14ec33</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6473591372a94b8b9c48b32d05d87169, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56727}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56727/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6473591372a94b8b9c48b32d05d87169</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c06027560a81fd853e666a3ff7ae5184, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56755}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56755/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c06027560a81fd853e666a3ff7ae5184</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e766974697a3a47ad3483dd2732ee892, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56784}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56784/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e766974697a3a47ad3483dd2732ee892</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [ea604484463339e4e15488306ada7414, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56813}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56813/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ea604484463339e4e15488306ada7414</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [302351e6a7f9c37b83e6076c416916cb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56839}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56839/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 302351e6a7f9c37b83e6076c416916cb</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a09769ddee75b01fc0e24521411b038c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56867}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56867/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a09769ddee75b01fc0e24521411b038c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b5b88392edc1186fe0473ba057ee91dc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56895}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56895/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b5b88392edc1186fe0473ba057ee91dc</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a26cfa0b922de1a0844757f00a3f6176, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56923}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56923/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a26cfa0b922de1a0844757f00a3f6176</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [34cc1ab706778dc7e2e4860234f67c1c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56950}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56950/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 34cc1ab706778dc7e2e4860234f67c1c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d04aa77d1a0d008d7c1d4a8cf1136425, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56977}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:56977/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d04aa77d1a0d008d7c1d4a8cf1136425</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3cfbfb3e26e39acad123a0a85174f426, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57003}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57003/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3cfbfb3e26e39acad123a0a85174f426</t>
+Command: [714608017ccbac794800af5d8bd00c09, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60675}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60675/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 714608017ccbac794800af5d8bd00c09</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [06838fd5d7e27f8b04881f45099b221f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60703}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60703/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 06838fd5d7e27f8b04881f45099b221f</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [285777da1a9952712f9427851e01fcb6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60727}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60727/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 285777da1a9952712f9427851e01fcb6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [39af7591f775ad72dcaeca267346e667, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60751}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60751/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 39af7591f775ad72dcaeca267346e667</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d8a8b6f335ed45fc0efb341ac66c1c9c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60777}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60777/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d8a8b6f335ed45fc0efb341ac66c1c9c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [86f0ef69464d44dae0a9e6f884ac69a6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60803}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60803/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 86f0ef69464d44dae0a9e6f884ac69a6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0541d6f26decda93c2aaee80f0566c8b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60829}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60829/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0541d6f26decda93c2aaee80f0566c8b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3bd90c0514ee11ba6852b9a0e1212f38, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60851}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60851/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3bd90c0514ee11ba6852b9a0e1212f38</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [55ca936fa4821d8e8d8ac5f654132a42, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60877}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60877/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 55ca936fa4821d8e8d8ac5f654132a42</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [123489c4165e5544f551fce048ac88cc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60904}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60904/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 123489c4165e5544f551fce048ac88cc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3ea584cc03df7b12ec3688bf860c1fc4, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60931}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60931/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3ea584cc03df7b12ec3688bf860c1fc4</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c2fcbf388d45c49385c852757c22f9cd, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60957}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60957/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c2fcbf388d45c49385c852757c22f9cd</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2dcb95a3400d689be46207ff125470ff, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60979}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60979/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2dcb95a3400d689be46207ff125470ff</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [af23c4f2457ae3bd52496fa7b28656d7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61005}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61005/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: af23c4f2457ae3bd52496fa7b28656d7</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4e85e21f34fe73d663cc6365341d1fbb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61047}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61047/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4e85e21f34fe73d663cc6365341d1fbb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [860e7cd0cbcbb63255a9716233185a07, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61073}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61073/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 860e7cd0cbcbb63255a9716233185a07</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1b70b54dc270e022e1661f5ab268dfed, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61100}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61100/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1b70b54dc270e022e1661f5ab268dfed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [45209d217715829b6f7d08e31a9e1301, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61125}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61125/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 45209d217715829b6f7d08e31a9e1301</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ad381c8d4d9bc1220abd1bc83e0d71c6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61149}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61149/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ad381c8d4d9bc1220abd1bc83e0d71c6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9d97b7bc4daa8eb3d95787deaf5660d5, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61175}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61175/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9d97b7bc4daa8eb3d95787deaf5660d5</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7542d5be73a4a41fa18e5080ca5eefc2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61201}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61201/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7542d5be73a4a41fa18e5080ca5eefc2</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [49f6e49f113661d7bd532d445a1a47e9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61229}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61229/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 49f6e49f113661d7bd532d445a1a47e9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ed56ab341af8ffc062ace6074f32b984, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61254}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61254/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ed56ab341af8ffc062ace6074f32b984</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [08072f9deb1a7a55e9a526f2ae3269b8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61279}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61279/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 08072f9deb1a7a55e9a526f2ae3269b8</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b14e2366f34f2c578469967446199a34, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61306}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61306/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b14e2366f34f2c578469967446199a34</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5dad30e6a5dffeb0be19ecf763ecf3e1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61332}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61332/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5dad30e6a5dffeb0be19ecf763ecf3e1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [695e675cc6c6154cffa5156db784fbc2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61358}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61358/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 695e675cc6c6154cffa5156db784fbc2</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9117f5c2e5240f7577cff462b6f28789, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61385}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61385/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9117f5c2e5240f7577cff462b6f28789</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9399b4d17b29aa929836d39b8a44eff3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61407}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61407/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9399b4d17b29aa929836d39b8a44eff3</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b459156feeda5c9a83016baba0c11f35, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61435}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61435/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b459156feeda5c9a83016baba0c11f35</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8fe2a5187745dd57cf83f243dd40500e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61461}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61461/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8fe2a5187745dd57cf83f243dd40500e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [cce5eeb9c54b5b8c30d7c92af782f1b0, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61488}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61488/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cce5eeb9c54b5b8c30d7c92af782f1b0</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4941f34fc71d2f6111babcab812de335, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61512}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61512/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4941f34fc71d2f6111babcab812de335</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1898fe8dff26bffad7dc75704a5dcc81, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61535}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61535/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1898fe8dff26bffad7dc75704a5dcc81</t>
   </si>
   <si>
     <t>Pass</t>
@@ -542,31 +432,31 @@
 Build info: version: '4.14.1', revision: '03f8ede370'
 System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
 Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [82037d8e20c9042537bff2584ccb0b29, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57202}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57202/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 82037d8e20c9042537bff2584ccb0b29</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c5ba5e09c92f1ae77295bb1df76627f4, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57229}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57229/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c5ba5e09c92f1ae77295bb1df76627f4</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [be8bd1038a9d68adedbda6075f077285, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57256}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:57256/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: be8bd1038a9d68adedbda6075f077285</t>
+Command: [82c5406917c2f21a01609bedb25bb9cf, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61732}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61732/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 82c5406917c2f21a01609bedb25bb9cf</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [70247b769da2cca0bccd85a234784c12, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61755}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61755/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 70247b769da2cca0bccd85a234784c12</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.207)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bfce61bbd2d6c69730ae19a79fbd203e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61781}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61781/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bfce61bbd2d6c69730ae19a79fbd203e</t>
   </si>
 </sst>
 </file>
@@ -611,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1234,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
@@ -1251,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -1268,10 +1158,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
@@ -1285,10 +1175,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
@@ -1302,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
@@ -1319,10 +1209,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -1339,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -1356,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -1373,182 +1263,12 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
   <si>
     <t>Test Method</t>
   </si>
@@ -36,427 +36,402 @@
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [23b7a95620640d2f67ce15c7862de407, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60631}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60631/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 23b7a95620640d2f67ce15c7862de407</t>
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1444f8ef813319cedb43670daabc717d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51023}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51023/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1444f8ef813319cedb43670daabc717d</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [714608017ccbac794800af5d8bd00c09, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60675}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60675/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 714608017ccbac794800af5d8bd00c09</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [06838fd5d7e27f8b04881f45099b221f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60703}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60703/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 06838fd5d7e27f8b04881f45099b221f</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [285777da1a9952712f9427851e01fcb6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60727}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60727/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 285777da1a9952712f9427851e01fcb6</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [39af7591f775ad72dcaeca267346e667, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60751}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60751/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 39af7591f775ad72dcaeca267346e667</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d8a8b6f335ed45fc0efb341ac66c1c9c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60777}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60777/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d8a8b6f335ed45fc0efb341ac66c1c9c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [86f0ef69464d44dae0a9e6f884ac69a6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60803}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60803/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 86f0ef69464d44dae0a9e6f884ac69a6</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0541d6f26decda93c2aaee80f0566c8b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60829}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60829/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0541d6f26decda93c2aaee80f0566c8b</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3bd90c0514ee11ba6852b9a0e1212f38, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60851}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60851/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3bd90c0514ee11ba6852b9a0e1212f38</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [55ca936fa4821d8e8d8ac5f654132a42, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60877}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60877/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 55ca936fa4821d8e8d8ac5f654132a42</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [123489c4165e5544f551fce048ac88cc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60904}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60904/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 123489c4165e5544f551fce048ac88cc</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3ea584cc03df7b12ec3688bf860c1fc4, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60931}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60931/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3ea584cc03df7b12ec3688bf860c1fc4</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c2fcbf388d45c49385c852757c22f9cd, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60957}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60957/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c2fcbf388d45c49385c852757c22f9cd</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [2dcb95a3400d689be46207ff125470ff, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60979}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60979/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 2dcb95a3400d689be46207ff125470ff</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [af23c4f2457ae3bd52496fa7b28656d7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61005}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61005/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: af23c4f2457ae3bd52496fa7b28656d7</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [4e85e21f34fe73d663cc6365341d1fbb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61047}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61047/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 4e85e21f34fe73d663cc6365341d1fbb</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [860e7cd0cbcbb63255a9716233185a07, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61073}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61073/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 860e7cd0cbcbb63255a9716233185a07</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [1b70b54dc270e022e1661f5ab268dfed, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61100}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61100/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 1b70b54dc270e022e1661f5ab268dfed</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [45209d217715829b6f7d08e31a9e1301, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61125}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61125/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 45209d217715829b6f7d08e31a9e1301</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [ad381c8d4d9bc1220abd1bc83e0d71c6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61149}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61149/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ad381c8d4d9bc1220abd1bc83e0d71c6</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [9d97b7bc4daa8eb3d95787deaf5660d5, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61175}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61175/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 9d97b7bc4daa8eb3d95787deaf5660d5</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [7542d5be73a4a41fa18e5080ca5eefc2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61201}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61201/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 7542d5be73a4a41fa18e5080ca5eefc2</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [49f6e49f113661d7bd532d445a1a47e9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61229}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61229/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 49f6e49f113661d7bd532d445a1a47e9</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [ed56ab341af8ffc062ace6074f32b984, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61254}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61254/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: ed56ab341af8ffc062ace6074f32b984</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [08072f9deb1a7a55e9a526f2ae3269b8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61279}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61279/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 08072f9deb1a7a55e9a526f2ae3269b8</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b14e2366f34f2c578469967446199a34, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61306}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61306/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b14e2366f34f2c578469967446199a34</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [5dad30e6a5dffeb0be19ecf763ecf3e1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61332}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61332/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5dad30e6a5dffeb0be19ecf763ecf3e1</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [695e675cc6c6154cffa5156db784fbc2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61358}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61358/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 695e675cc6c6154cffa5156db784fbc2</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [9117f5c2e5240f7577cff462b6f28789, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61385}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61385/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 9117f5c2e5240f7577cff462b6f28789</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [9399b4d17b29aa929836d39b8a44eff3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61407}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61407/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 9399b4d17b29aa929836d39b8a44eff3</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b459156feeda5c9a83016baba0c11f35, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61435}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61435/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b459156feeda5c9a83016baba0c11f35</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8fe2a5187745dd57cf83f243dd40500e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61461}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61461/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 8fe2a5187745dd57cf83f243dd40500e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [cce5eeb9c54b5b8c30d7c92af782f1b0, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61488}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61488/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: cce5eeb9c54b5b8c30d7c92af782f1b0</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [4941f34fc71d2f6111babcab812de335, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61512}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61512/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 4941f34fc71d2f6111babcab812de335</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [1898fe8dff26bffad7dc75704a5dcc81, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61535}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61535/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 1898fe8dff26bffad7dc75704a5dcc81</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [82c5406917c2f21a01609bedb25bb9cf, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61732}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61732/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 82c5406917c2f21a01609bedb25bb9cf</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [70247b769da2cca0bccd85a234784c12, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61755}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61755/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 70247b769da2cca0bccd85a234784c12</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.207)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [bfce61bbd2d6c69730ae19a79fbd203e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.207, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61781}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61781/devtoo..., se:cdpVersion: 124.0.6367.207, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: bfce61bbd2d6c69730ae19a79fbd203e</t>
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3e401a71fcb0b294564893980ed51d0e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51065}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51065/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3e401a71fcb0b294564893980ed51d0e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2020d7c2de66194de157451ebc7fab53, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51091}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51091/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2020d7c2de66194de157451ebc7fab53</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e2a642b740d9ecec78d731841a5f3bc0, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51118}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51118/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e2a642b740d9ecec78d731841a5f3bc0</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9a47c6f29b75331312891be8c32d5afd, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51146}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51146/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9a47c6f29b75331312891be8c32d5afd</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [639dbc6c734101d53b0a006a4a9367f2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51171}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51171/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 639dbc6c734101d53b0a006a4a9367f2</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [04517e893ab7376118f7d401c070d182, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51196}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51196/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 04517e893ab7376118f7d401c070d182</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2d12c9be8d07799b56c64c991cc51abb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51223}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51223/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2d12c9be8d07799b56c64c991cc51abb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5f0ac953b57f1554d0ab62f36557895d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51249}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51249/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5f0ac953b57f1554d0ab62f36557895d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [57247356a9b23e8c9f7933177fbf38eb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51277}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51277/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 57247356a9b23e8c9f7933177fbf38eb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3e05dfd29f3406dab0f7c37733495c7f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51302}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51302/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3e05dfd29f3406dab0f7c37733495c7f</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3a0f9e5408020d659797dbff0436f503, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51326}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51326/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3a0f9e5408020d659797dbff0436f503</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [00197e96a3d3ba4a6bda5e9a030979af, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51351}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51351/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 00197e96a3d3ba4a6bda5e9a030979af</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6f6088e36db591e5d9d7cae5baaee9c7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51379}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51379/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6f6088e36db591e5d9d7cae5baaee9c7</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d4942b84367fd894add3adf3108e5466, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51405}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51405/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d4942b84367fd894add3adf3108e5466</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [709d95efca46be03738e5f984a856d40, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51430}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51430/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 709d95efca46be03738e5f984a856d40</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9d3bcf490100862437345a83963499fc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51456}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51456/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9d3bcf490100862437345a83963499fc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3787c04e63b0fc3c041ad5d0106d365c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51483}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51483/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3787c04e63b0fc3c041ad5d0106d365c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c124c9242519390c7fccaab1b49ecdc7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51511}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51511/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c124c9242519390c7fccaab1b49ecdc7</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b1e667a117e54cd297ddbb6f084e5116, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51534}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51534/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b1e667a117e54cd297ddbb6f084e5116</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [39a7b12469478577c8cc68d052c94e8c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51558}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51558/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 39a7b12469478577c8cc68d052c94e8c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5bb98dff14c3b4c4276c003d531570eb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51585}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51585/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5bb98dff14c3b4c4276c003d531570eb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c4806d7a4301c44b86557d310601268c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51612}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51612/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c4806d7a4301c44b86557d310601268c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c1987e76d8584dee7fc0cfd93ea5b1c8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51639}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51639/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c1987e76d8584dee7fc0cfd93ea5b1c8</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [713a6fa65759cd59f55336da41c14723, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51664}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51664/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 713a6fa65759cd59f55336da41c14723</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c41db98d9abfa641ebd359873dac5ec1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51688}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51688/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c41db98d9abfa641ebd359873dac5ec1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [129de789f18fdcc9700e09ffad7971e8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51714}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51714/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 129de789f18fdcc9700e09ffad7971e8</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [354e43ec6ac4f0a5004a28e69c828dbd, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51741}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51741/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 354e43ec6ac4f0a5004a28e69c828dbd</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3f9546be3a7c2a9e36522f21bdc75a7f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51768}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51768/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3f9546be3a7c2a9e36522f21bdc75a7f</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b7c380f10e0ba6e1fbbe693dec62e909, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51793}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51793/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b7c380f10e0ba6e1fbbe693dec62e909</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [de00b917c6fecc0a65ec804d18622133, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51817}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51817/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: de00b917c6fecc0a65ec804d18622133</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6fa4412a0700492eaa29bcc1986c6bc9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51844}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51844/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6fa4412a0700492eaa29bcc1986c6bc9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c5209afffb5161bffda854d3d8a5dceb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51871}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51871/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c5209afffb5161bffda854d3d8a5dceb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a4cdf560dbbc97d582c54378203d2b27, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51894}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51894/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a4cdf560dbbc97d582c54378203d2b27</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6a8261e31bc72edfe3c72bbee2188179, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51919}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51919/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6a8261e31bc72edfe3c72bbee2188179</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=124.0.6367.209)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [11e8d5fa0f601c5393f0bf6335004029, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51945}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51945/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 11e8d5fa0f601c5393f0bf6335004029</t>
   </si>
 </sst>
 </file>
@@ -501,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1124,151 +1099,15 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="8">
   <si>
     <t>Test Method</t>
   </si>
@@ -32,406 +32,10 @@
     <t>launch</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [1444f8ef813319cedb43670daabc717d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51023}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51023/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 1444f8ef813319cedb43670daabc717d</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3e401a71fcb0b294564893980ed51d0e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51065}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51065/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3e401a71fcb0b294564893980ed51d0e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [2020d7c2de66194de157451ebc7fab53, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51091}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51091/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 2020d7c2de66194de157451ebc7fab53</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [e2a642b740d9ecec78d731841a5f3bc0, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51118}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51118/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: e2a642b740d9ecec78d731841a5f3bc0</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [9a47c6f29b75331312891be8c32d5afd, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51146}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51146/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 9a47c6f29b75331312891be8c32d5afd</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [639dbc6c734101d53b0a006a4a9367f2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51171}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51171/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 639dbc6c734101d53b0a006a4a9367f2</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [04517e893ab7376118f7d401c070d182, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51196}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51196/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 04517e893ab7376118f7d401c070d182</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [2d12c9be8d07799b56c64c991cc51abb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51223}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51223/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 2d12c9be8d07799b56c64c991cc51abb</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [5f0ac953b57f1554d0ab62f36557895d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51249}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51249/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5f0ac953b57f1554d0ab62f36557895d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [57247356a9b23e8c9f7933177fbf38eb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51277}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51277/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 57247356a9b23e8c9f7933177fbf38eb</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3e05dfd29f3406dab0f7c37733495c7f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51302}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51302/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3e05dfd29f3406dab0f7c37733495c7f</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3a0f9e5408020d659797dbff0436f503, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51326}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51326/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3a0f9e5408020d659797dbff0436f503</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [00197e96a3d3ba4a6bda5e9a030979af, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51351}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51351/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 00197e96a3d3ba4a6bda5e9a030979af</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6f6088e36db591e5d9d7cae5baaee9c7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51379}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51379/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6f6088e36db591e5d9d7cae5baaee9c7</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d4942b84367fd894add3adf3108e5466, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51405}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51405/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d4942b84367fd894add3adf3108e5466</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [709d95efca46be03738e5f984a856d40, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51430}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51430/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 709d95efca46be03738e5f984a856d40</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [9d3bcf490100862437345a83963499fc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51456}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51456/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 9d3bcf490100862437345a83963499fc</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3787c04e63b0fc3c041ad5d0106d365c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51483}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51483/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3787c04e63b0fc3c041ad5d0106d365c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c124c9242519390c7fccaab1b49ecdc7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51511}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51511/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c124c9242519390c7fccaab1b49ecdc7</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b1e667a117e54cd297ddbb6f084e5116, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51534}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51534/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b1e667a117e54cd297ddbb6f084e5116</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [39a7b12469478577c8cc68d052c94e8c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51558}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51558/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 39a7b12469478577c8cc68d052c94e8c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [5bb98dff14c3b4c4276c003d531570eb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51585}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51585/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5bb98dff14c3b4c4276c003d531570eb</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c4806d7a4301c44b86557d310601268c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51612}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51612/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c4806d7a4301c44b86557d310601268c</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c1987e76d8584dee7fc0cfd93ea5b1c8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51639}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51639/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c1987e76d8584dee7fc0cfd93ea5b1c8</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [713a6fa65759cd59f55336da41c14723, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51664}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51664/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 713a6fa65759cd59f55336da41c14723</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c41db98d9abfa641ebd359873dac5ec1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51688}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51688/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c41db98d9abfa641ebd359873dac5ec1</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [129de789f18fdcc9700e09ffad7971e8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51714}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51714/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 129de789f18fdcc9700e09ffad7971e8</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [354e43ec6ac4f0a5004a28e69c828dbd, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51741}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51741/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 354e43ec6ac4f0a5004a28e69c828dbd</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3f9546be3a7c2a9e36522f21bdc75a7f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51768}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51768/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3f9546be3a7c2a9e36522f21bdc75a7f</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [b7c380f10e0ba6e1fbbe693dec62e909, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51793}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51793/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: b7c380f10e0ba6e1fbbe693dec62e909</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [de00b917c6fecc0a65ec804d18622133, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51817}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51817/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: de00b917c6fecc0a65ec804d18622133</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6fa4412a0700492eaa29bcc1986c6bc9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51844}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51844/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6fa4412a0700492eaa29bcc1986c6bc9</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c5209afffb5161bffda854d3d8a5dceb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51871}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51871/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c5209afffb5161bffda854d3d8a5dceb</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a4cdf560dbbc97d582c54378203d2b27, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51894}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51894/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a4cdf560dbbc97d582c54378203d2b27</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [6a8261e31bc72edfe3c72bbee2188179, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51919}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51919/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 6a8261e31bc72edfe3c72bbee2188179</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=124.0.6367.209)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [11e8d5fa0f601c5393f0bf6335004029, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.209, chrome: {chromedriverVersion: 124.0.6367.207 (a9001a6e39f..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51945}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51945/devtoo..., se:cdpVersion: 124.0.6367.209, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 11e8d5fa0f601c5393f0bf6335004029</t>
   </si>
 </sst>
 </file>
@@ -510,10 +114,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +128,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -541,13 +145,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +162,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -575,13 +179,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -592,13 +196,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -609,13 +213,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -626,13 +230,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -643,13 +247,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -660,13 +264,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -677,13 +281,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -694,13 +298,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -711,13 +315,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -728,13 +332,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -745,13 +349,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -762,13 +366,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -779,13 +383,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -796,13 +400,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -813,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -830,13 +434,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -847,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +468,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -881,13 +485,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -898,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -915,13 +519,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -932,13 +536,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -949,13 +553,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -966,13 +570,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -983,13 +587,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1000,13 +604,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1017,13 +621,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1034,13 +638,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1051,13 +655,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1068,13 +672,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1085,13 +689,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1102,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="8">
   <si>
     <t>Test Method</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -715,6 +715,40 @@
         <v>7</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="8">
   <si>
     <t>Test Method</t>
   </si>
@@ -80,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -749,6 +749,108 @@
         <v>7</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="43">
   <si>
     <t>Test Method</t>
   </si>
@@ -32,10 +32,395 @@
     <t>launch</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d7119a405c6fe0f1ec9f0afbb72c07ff, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51373}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51373/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d7119a405c6fe0f1ec9f0afbb72c07ff</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bddb4e83213d85c265a644358d554ee8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51401}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51401/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bddb4e83213d85c265a644358d554ee8</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4398b480114be33856f88e6927fb404a, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51429}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51429/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4398b480114be33856f88e6927fb404a</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [98933fe7ea3f17a99abd61d33ba8ba3b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51456}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51456/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 98933fe7ea3f17a99abd61d33ba8ba3b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [54eda77ce8f2d958ae003102413adae6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51483}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51483/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 54eda77ce8f2d958ae003102413adae6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [03be0e3715c95189d700ee7d5345e2c2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51510}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51510/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 03be0e3715c95189d700ee7d5345e2c2</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0de0d9232d06091a7ceafb812dadaeb8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51538}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51538/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0de0d9232d06091a7ceafb812dadaeb8</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7258f1c2322101e4ff2789c40bfbd80e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51565}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51565/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7258f1c2322101e4ff2789c40bfbd80e</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d7e60aa31e8793cd9914f3edb3f122c3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51607}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51607/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d7e60aa31e8793cd9914f3edb3f122c3</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3793671fe4f2cfb6f108018bbbaeecf9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51634}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51634/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3793671fe4f2cfb6f108018bbbaeecf9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [816e5a6851d036d16a7ecde81b8a7604, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51662}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51662/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 816e5a6851d036d16a7ecde81b8a7604</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d9a459ba3f491f20002e65a1fb4eaa59, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51687}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51687/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d9a459ba3f491f20002e65a1fb4eaa59</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [74bfd9ccf8788f858647c72f70fa7657, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51715}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51715/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 74bfd9ccf8788f858647c72f70fa7657</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8556520abc63f7c7d71ca84f7390320d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51742}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51742/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8556520abc63f7c7d71ca84f7390320d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2a54ad5e34db19af560ff8358aa843dc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51776}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51776/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2a54ad5e34db19af560ff8358aa843dc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2ff8e09af8c8e130657a7533f6b042a2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51803}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51803/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2ff8e09af8c8e130657a7533f6b042a2</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [87bafea574a4b347c19b3856a26c0342, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51835}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51835/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 87bafea574a4b347c19b3856a26c0342</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [eb0c8877c38ab5f050bb9c7d2b8aced9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51861}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51861/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: eb0c8877c38ab5f050bb9c7d2b8aced9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8be1383df548f2fcb1d9e17b0a415ba6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51888}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51888/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8be1383df548f2fcb1d9e17b0a415ba6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [76adc1f9eef0bbbd883d729f90bf5812, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51915}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51915/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 76adc1f9eef0bbbd883d729f90bf5812</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7eec1b7437b50c22db5186ce0ee6d103, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51943}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51943/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7eec1b7437b50c22db5186ce0ee6d103</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4a36849bdd5cd79cd9296ac8b4aa2bd5, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51970}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51970/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4a36849bdd5cd79cd9296ac8b4aa2bd5</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8e1345c6661f89bb1fc3d14376840d92, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51998}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51998/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8e1345c6661f89bb1fc3d14376840d92</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2d9cdd4dfbb701dcdeb7850ee3f91575, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52024}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52024/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2d9cdd4dfbb701dcdeb7850ee3f91575</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [50656fa0af0207a36586395dc71af064, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52051}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52051/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 50656fa0af0207a36586395dc71af064</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5fa3a5c80b006bffe216192430a32608, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52081}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52081/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5fa3a5c80b006bffe216192430a32608</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fc84630867fd9ff3082b06e00050752a, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52110}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52110/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fc84630867fd9ff3082b06e00050752a</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d66fc558619ce874b38867aab8070313, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52141}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52141/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d66fc558619ce874b38867aab8070313</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a7d5125e665bb80574b023f8578c0d2b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52172}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52172/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a7d5125e665bb80574b023f8578c0d2b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [05ad158006e27ff8d44928b612639c6d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52198}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52198/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 05ad158006e27ff8d44928b612639c6d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [585585d52690eb3432ee1ba5b9971a66, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52225}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52225/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 585585d52690eb3432ee1ba5b9971a66</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c121559e457041698b7d7fcc4a59b618, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52252}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52252/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c121559e457041698b7d7fcc4a59b618</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [24da3d8f97ee26faa3d65c67a71cb2f9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52280}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52280/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 24da3d8f97ee26faa3d65c67a71cb2f9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c84f6e7ee80bca4a08d490f41946391b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52307}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52307/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c84f6e7ee80bca4a08d490f41946391b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.77)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [80b2d8c7349bf3914fa932c34c88b84a, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52334}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52334/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 80b2d8c7349bf3914fa932c34c88b84a</t>
   </si>
 </sst>
 </file>
@@ -80,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -114,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -128,13 +513,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -145,13 +530,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -162,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -179,13 +564,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -196,13 +581,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -213,13 +598,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -230,13 +615,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -247,13 +632,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -264,13 +649,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -281,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -298,13 +683,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -315,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -332,13 +717,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -349,13 +734,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -366,13 +751,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -383,13 +768,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -400,13 +785,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -417,13 +802,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -434,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -451,13 +836,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -468,13 +853,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -485,13 +870,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -502,13 +887,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -519,13 +904,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -536,13 +921,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -553,13 +938,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -570,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -587,13 +972,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -604,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -621,13 +1006,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -638,13 +1023,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -655,13 +1040,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -672,13 +1057,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -689,166 +1074,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="50">
   <si>
     <t>Test Method</t>
   </si>
@@ -36,391 +36,468 @@
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d7119a405c6fe0f1ec9f0afbb72c07ff, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51373}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51373/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d7119a405c6fe0f1ec9f0afbb72c07ff</t>
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5a320b19cf06158336d63a71d1c4ee23, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49287}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49287/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 5a320b19cf06158336d63a71d1c4ee23</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
     <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [bddb4e83213d85c265a644358d554ee8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51401}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51401/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: bddb4e83213d85c265a644358d554ee8</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [4398b480114be33856f88e6927fb404a, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51429}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51429/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 4398b480114be33856f88e6927fb404a</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [98933fe7ea3f17a99abd61d33ba8ba3b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51456}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51456/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 98933fe7ea3f17a99abd61d33ba8ba3b</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [54eda77ce8f2d958ae003102413adae6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51483}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51483/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 54eda77ce8f2d958ae003102413adae6</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [03be0e3715c95189d700ee7d5345e2c2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51510}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51510/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 03be0e3715c95189d700ee7d5345e2c2</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [0de0d9232d06091a7ceafb812dadaeb8, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51538}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51538/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 0de0d9232d06091a7ceafb812dadaeb8</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [7258f1c2322101e4ff2789c40bfbd80e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51565}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51565/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 7258f1c2322101e4ff2789c40bfbd80e</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d7e60aa31e8793cd9914f3edb3f122c3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51607}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51607/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d7e60aa31e8793cd9914f3edb3f122c3</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [3793671fe4f2cfb6f108018bbbaeecf9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51634}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51634/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 3793671fe4f2cfb6f108018bbbaeecf9</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [816e5a6851d036d16a7ecde81b8a7604, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51662}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51662/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 816e5a6851d036d16a7ecde81b8a7604</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d9a459ba3f491f20002e65a1fb4eaa59, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51687}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51687/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d9a459ba3f491f20002e65a1fb4eaa59</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [74bfd9ccf8788f858647c72f70fa7657, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51715}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51715/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 74bfd9ccf8788f858647c72f70fa7657</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8556520abc63f7c7d71ca84f7390320d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51742}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51742/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 8556520abc63f7c7d71ca84f7390320d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [2a54ad5e34db19af560ff8358aa843dc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51776}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51776/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 2a54ad5e34db19af560ff8358aa843dc</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [2ff8e09af8c8e130657a7533f6b042a2, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51803}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51803/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 2ff8e09af8c8e130657a7533f6b042a2</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [87bafea574a4b347c19b3856a26c0342, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51835}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51835/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 87bafea574a4b347c19b3856a26c0342</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [eb0c8877c38ab5f050bb9c7d2b8aced9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51861}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51861/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: eb0c8877c38ab5f050bb9c7d2b8aced9</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8be1383df548f2fcb1d9e17b0a415ba6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51888}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51888/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 8be1383df548f2fcb1d9e17b0a415ba6</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [76adc1f9eef0bbbd883d729f90bf5812, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51915}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51915/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 76adc1f9eef0bbbd883d729f90bf5812</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [7eec1b7437b50c22db5186ce0ee6d103, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51943}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51943/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 7eec1b7437b50c22db5186ce0ee6d103</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [4a36849bdd5cd79cd9296ac8b4aa2bd5, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51970}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51970/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 4a36849bdd5cd79cd9296ac8b4aa2bd5</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [8e1345c6661f89bb1fc3d14376840d92, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51998}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:51998/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 8e1345c6661f89bb1fc3d14376840d92</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [2d9cdd4dfbb701dcdeb7850ee3f91575, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52024}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52024/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 2d9cdd4dfbb701dcdeb7850ee3f91575</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [50656fa0af0207a36586395dc71af064, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52051}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52051/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 50656fa0af0207a36586395dc71af064</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [5fa3a5c80b006bffe216192430a32608, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52081}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52081/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 5fa3a5c80b006bffe216192430a32608</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [fc84630867fd9ff3082b06e00050752a, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52110}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52110/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: fc84630867fd9ff3082b06e00050752a</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [d66fc558619ce874b38867aab8070313, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52141}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52141/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: d66fc558619ce874b38867aab8070313</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [a7d5125e665bb80574b023f8578c0d2b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52172}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52172/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: a7d5125e665bb80574b023f8578c0d2b</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [05ad158006e27ff8d44928b612639c6d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52198}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52198/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 05ad158006e27ff8d44928b612639c6d</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [585585d52690eb3432ee1ba5b9971a66, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52225}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52225/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 585585d52690eb3432ee1ba5b9971a66</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c121559e457041698b7d7fcc4a59b618, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52252}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52252/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c121559e457041698b7d7fcc4a59b618</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [24da3d8f97ee26faa3d65c67a71cb2f9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52280}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52280/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 24da3d8f97ee26faa3d65c67a71cb2f9</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [c84f6e7ee80bca4a08d490f41946391b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52307}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52307/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: c84f6e7ee80bca4a08d490f41946391b</t>
-  </si>
-  <si>
-    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
-  (Session info: chrome-headless-shell=125.0.6422.77)
-For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
-Build info: version: '4.14.1', revision: '03f8ede370'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [80b2d8c7349bf3914fa932c34c88b84a, findElement {using=xpath, value=//h1[@class='prod-heading']}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.77, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52334}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:52334/devtoo..., se:cdpVersion: 125.0.6422.77, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Session ID: 80b2d8c7349bf3914fa932c34c88b84a</t>
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [cc4351f20299c3429cd84452bf2f8629, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49333}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49333/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cc4351f20299c3429cd84452bf2f8629</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f6f5d60555ab538c28a3729fc8444ce3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49360}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49360/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f6f5d60555ab538c28a3729fc8444ce3</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f5c574fce5130d2f2bb43b4df8f3b0c3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49388}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49388/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f5c574fce5130d2f2bb43b4df8f3b0c3</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [69480789296d448d55f0985afee0b62d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49678}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49678/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 69480789296d448d55f0985afee0b62d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [93db09e06406455ed7c320bc07f06a42, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49705}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49705/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 93db09e06406455ed7c320bc07f06a42</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [550ab45c8f38df7f344325029fc2609a, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49732}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49732/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 550ab45c8f38df7f344325029fc2609a</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [51643aafae904087d3d67260608cc929, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49759}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49759/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 51643aafae904087d3d67260608cc929</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a113b59a5d17a785e58a908c5ddbb5dc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49787}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49787/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a113b59a5d17a785e58a908c5ddbb5dc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0367906bf83b567a69df0f6f62ccc844, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49815}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49815/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0367906bf83b567a69df0f6f62ccc844</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7bb84ce9137221f20fd48e7872996a3c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49844}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49844/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7bb84ce9137221f20fd48e7872996a3c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2e41a68178638c5904944eab6fd17028, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49875}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49875/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2e41a68178638c5904944eab6fd17028</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c509a9380442fcd9a4f173274f5b2659, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49898}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49898/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c509a9380442fcd9a4f173274f5b2659</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ba0cfe9889eab2875eaa1bc74c0cd375, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49929}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49929/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ba0cfe9889eab2875eaa1bc74c0cd375</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [69e566e2ee1fc951c43709bb12a8ce7b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49953}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49953/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 69e566e2ee1fc951c43709bb12a8ce7b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [68d4ad4f59100bf75f94d616e4671c26, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49979}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49979/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 68d4ad4f59100bf75f94d616e4671c26</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2adcef59786a2ab6bb1f4d310d198c7f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50007}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50007/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2adcef59786a2ab6bb1f4d310d198c7f</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [45aae81781843958a1acc4ce4ecad75b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50037}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50037/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 45aae81781843958a1acc4ce4ecad75b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3a9ce58c76e17de9506b24af6218696d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50060}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50060/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3a9ce58c76e17de9506b24af6218696d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d3f431530ee959eed4cc125d3b49caa5, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50086}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50086/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d3f431530ee959eed4cc125d3b49caa5</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2cd0b91176527dc4e7184c955cbdcaed, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50114}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50114/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2cd0b91176527dc4e7184c955cbdcaed</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e7ab2470df7c290924fce738caab0c4d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50141}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50141/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e7ab2470df7c290924fce738caab0c4d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8a4afd69808efaf566b7b06c14d10630, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50169}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50169/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8a4afd69808efaf566b7b06c14d10630</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [6add293b3620b3051c3caff37fd481e1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50196}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50196/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 6add293b3620b3051c3caff37fd481e1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [cee7ad541da34bbad7126213eb0e481f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50223}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50223/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cee7ad541da34bbad7126213eb0e481f</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f7f6b365666d29afd12cb0eb286971d0, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50249}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50249/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f7f6b365666d29afd12cb0eb286971d0</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c63c059cb6c7816a8ff5f807ac9730ec, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50276}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50276/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c63c059cb6c7816a8ff5f807ac9730ec</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f353f919e3a979417674e3ce35e521d1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50303}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50303/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f353f919e3a979417674e3ce35e521d1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [17db490fa1fe37bc055731ec48a4cfbb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50326}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50326/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 17db490fa1fe37bc055731ec48a4cfbb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [34360db123204bbb0b9f7c48ac1cafc3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50354}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50354/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 34360db123204bbb0b9f7c48ac1cafc3</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [dc41e771d6ca7e40a53c2c2bce9e3f06, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50380}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50380/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: dc41e771d6ca7e40a53c2c2bce9e3f06</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3c6ccc35bbbe3987d8484e11e92c24ec, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50407}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50407/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3c6ccc35bbbe3987d8484e11e92c24ec</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d4266b8b9b1037d85d75c02bb4d55893, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50433}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50433/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d4266b8b9b1037d85d75c02bb4d55893</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ef525130cb71885895a308e8902e467b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50460}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50460/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ef525130cb71885895a308e8902e467b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8bb43644283501c2d28f17cb6f835b1d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50488}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50488/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 8bb43644283501c2d28f17cb6f835b1d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a8444120c16d5dd09cfc35370782b796, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50514}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50514/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a8444120c16d5dd09cfc35370782b796</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [03c8f62220df9efb7e291a7a7161774a, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50541}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50541/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 03c8f62220df9efb7e291a7a7161774a</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d068030611761f0d431ad407fb926dcb, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50569}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50569/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d068030611761f0d431ad407fb926dcb</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [685b0998c1eecab5226dac44b13c0655, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50595}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50595/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 685b0998c1eecab5226dac44b13c0655</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f7a55236bb3915ba2ad70642e25c1157, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50622}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50622/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f7a55236bb3915ba2ad70642e25c1157</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [bcd63e415ebf3e14505d07bb5ea09f81, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50649}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50649/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bcd63e415ebf3e14505d07bb5ea09f81</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.78)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d7a445804ab0222055dae945d2282141, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.78, chrome: {chromedriverVersion: 125.0.6422.78 (14db42ec38ad..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50677}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:50677/devtoo..., se:cdpVersion: 125.0.6422.78, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d7a445804ab0222055dae945d2282141</t>
   </si>
 </sst>
 </file>
@@ -465,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1083,6 +1160,125 @@
         <v>8</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TestNG_Excel_Report.xlsx
+++ b/TestNG_Excel_Report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="49">
   <si>
     <t>Test Method</t>
   </si>
@@ -32,10 +32,461 @@
     <t>launch</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c5ec917e7af8480db54ad3cac2f5f6b6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60313}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60313/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c5ec917e7af8480db54ad3cac2f5f6b6</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [24b2fef919c4c2939bea81702fe0e543, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60342}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60342/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 24b2fef919c4c2939bea81702fe0e543</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [527ad190ccf9814ccc9f988742e11255, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60375}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60375/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 527ad190ccf9814ccc9f988742e11255</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0ce12e01b5c16cf96484ffa7cf7a756b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60406}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60406/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0ce12e01b5c16cf96484ffa7cf7a756b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [84cea69d9ce457333e0d8907972c2c0c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60433}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60433/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 84cea69d9ce457333e0d8907972c2c0c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f1f23d383bb32ad5153e844b505dcbbd, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60462}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60462/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f1f23d383bb32ad5153e844b505dcbbd</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ea0aa920977273b9a294ff3380a5774f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60490}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60490/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ea0aa920977273b9a294ff3380a5774f</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a0a3a5304aa4ab9bf6b2ef723429be1d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60520}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60520/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a0a3a5304aa4ab9bf6b2ef723429be1d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c2c0ab62bf7efae9f8a42c3ee8b120d9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60547}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60547/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c2c0ab62bf7efae9f8a42c3ee8b120d9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d391b44ae79438cb3016f7f5145267b5, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60573}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60573/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d391b44ae79438cb3016f7f5145267b5</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [f20101bbabaeea5c6a47c56c590d6e3d, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60602}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60602/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: f20101bbabaeea5c6a47c56c590d6e3d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [43828c00b001683cd706267f8b9748bd, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60635}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60635/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 43828c00b001683cd706267f8b9748bd</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [30aa03bce9f3335ed5d3f47e2f0a3fb3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60663}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60663/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 30aa03bce9f3335ed5d3f47e2f0a3fb3</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4b8cd237e77f92d499ce60591b5af579, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60693}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60693/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 4b8cd237e77f92d499ce60591b5af579</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [542da1eccf470d642320b87c549d7608, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60721}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60721/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 542da1eccf470d642320b87c549d7608</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2aed6e4cced3d533cd27b0a3a475a917, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60748}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60748/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2aed6e4cced3d533cd27b0a3a475a917</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [96563f3aa572b52e295cb3781bda0c89, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60775}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60775/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 96563f3aa572b52e295cb3781bda0c89</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [efcb1f32bf0232ca61d8529814a07e47, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60805}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60805/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: efcb1f32bf0232ca61d8529814a07e47</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0a7b0a42ef1bb58d957629533e2d5eb4, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60834}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60834/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a7b0a42ef1bb58d957629533e2d5eb4</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2d47d97668e4b5639c3675194ed64bc6, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60860}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60860/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2d47d97668e4b5639c3675194ed64bc6</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [80b74af1890769fd544cedafdeb3d8c1, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60891}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60891/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 80b74af1890769fd544cedafdeb3d8c1</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [9b564c0adda59bb24870f0209a2765d7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60958}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60958/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 9b564c0adda59bb24870f0209a2765d7</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [38ba5c8cbf93a2f1ec71ad97f581b019, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60987}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:60987/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 38ba5c8cbf93a2f1ec71ad97f581b019</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [142844e19192eee1ada4855dfbc629cc, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61015}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61015/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 142844e19192eee1ada4855dfbc629cc</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [26fa15a1e27969dea179d524769a4a56, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61045}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61045/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 26fa15a1e27969dea179d524769a4a56</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [cedbca8761156f444ff462fbb09bb6e4, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61073}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61073/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: cedbca8761156f444ff462fbb09bb6e4</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ff9aa07cf12055eb665d59efa27dcb8b, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61103}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61103/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ff9aa07cf12055eb665d59efa27dcb8b</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d33cf3efb45bd1438e88c12d28957188, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61133}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61133/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d33cf3efb45bd1438e88c12d28957188</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d3e0bc1aec48068130073076515b8a8f, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61162}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61162/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d3e0bc1aec48068130073076515b8a8f</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [12099fe8478beedb398f1e8f12eb0040, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61192}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61192/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 12099fe8478beedb398f1e8f12eb0040</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [043a007117fa1711806d250f848b6ba7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61221}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61221/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 043a007117fa1711806d250f848b6ba7</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [556325a76c183062f89f744cc5f952d3, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61251}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61251/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 556325a76c183062f89f744cc5f952d3</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3392a57220e0eb7c679611b34285817c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61277}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61277/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3392a57220e0eb7c679611b34285817c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7f7a3c5b04125aa3db8de964cbbf56f9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61306}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61306/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7f7a3c5b04125aa3db8de964cbbf56f9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3904a371fe2cd5374b41f0f6e5fe1da7, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61334}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61334/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 3904a371fe2cd5374b41f0f6e5fe1da7</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [80dba635df0dc411121034ee0b6d1786, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61367}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61367/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 80dba635df0dc411121034ee0b6d1786</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ff1c6bc7d7e3900aec9b3e0fa6936496, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61408}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61408/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: ff1c6bc7d7e3900aec9b3e0fa6936496</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [15a3a888bf2e255e3e78e4f5304522d9, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61434}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61434/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 15a3a888bf2e255e3e78e4f5304522d9</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0a7a7ee697ee4baec2cd5a3a776b554c, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61462}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61462/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a7a7ee697ee4baec2cd5a3a776b554c</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e2b856633dfb52102d9a0b0f2aa41f55, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61489}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61489/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: e2b856633dfb52102d9a0b0f2aa41f55</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//h1[@class='prod-heading']"}
+  (Session info: chrome-headless-shell=125.0.6422.113)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.14.1', revision: '03f8ede370'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '21.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d401b92b5e48d7c3f6e52926007ed27e, findElement {using=xpath, value=//h1[@class='prod-heading']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 125.0.6422.113, chrome: {chromedriverVersion: 125.0.6422.141 (4b1e8393712..., userDataDir: C:\Users\Acviss\AppData\Loc...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:61521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:61521/devtoo..., se:cdpVersion: 125.0.6422.113, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: d401b92b5e48d7c3f6e52926007ed27e</t>
   </si>
 </sst>
 </file>
@@ -80,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -114,10 +565,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -128,13 +579,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -145,13 +596,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -162,13 +613,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -179,13 +630,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -196,13 +647,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -213,13 +664,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -230,13 +681,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -247,13 +698,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -264,13 +715,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -281,13 +732,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -298,13 +749,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -315,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -332,13 +783,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -349,13 +800,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -366,13 +817,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -383,13 +834,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -400,13 +851,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -417,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -434,13 +885,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -451,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -468,13 +919,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -485,13 +936,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -502,13 +953,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -519,13 +970,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -536,13 +987,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -553,13 +1004,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -570,13 +1021,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -587,13 +1038,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -604,13 +1055,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -621,13 +1072,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -638,13 +1089,166 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
